--- a/Data_analysis/직장인을_위한_실무_엑셀/Chapter02/Section06/근속년수에대한휴가일수찾아옴.xlsx
+++ b/Data_analysis/직장인을_위한_실무_엑셀/Chapter02/Section06/근속년수에대한휴가일수찾아옴.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_집필원고\직장인실무2019\Part2\Section06\06_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을_위한_실무_엑셀/Chapter02/Section06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA870B30-9987-4854-96D9-013AD1812F1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F128C74-96EF-914E-8845-AF7E5AD94943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" activeTab="1" xr2:uid="{8DA656EA-4323-4C0B-BD05-22B1F392343B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{8DA656EA-4323-4C0B-BD05-22B1F392343B}"/>
   </bookViews>
   <sheets>
     <sheet name="사원정보" sheetId="1" r:id="rId1"/>
     <sheet name="휴가일수" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>사원번호</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -198,10 +209,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="180" formatCode="0\ &quot;년&quot;"/>
+    <numFmt numFmtId="181" formatCode="0\ &quot;일&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,12 +355,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,16 +368,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -375,14 +386,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -703,22 +729,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDA762D-0D86-4428-A9CB-9AFDC14BB7B1}">
   <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -757,20 +783,20 @@
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>28</v>
       </c>
-      <c r="F3" s="5">
-        <v>37377</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="4">
+        <v>44682</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>5467</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -783,20 +809,20 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>39</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>40404</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>3457</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -809,20 +835,20 @@
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>27</v>
       </c>
-      <c r="F5" s="5">
-        <v>39539</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="4">
+        <v>43191</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>3355</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -835,20 +861,20 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>25</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>39205</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>5176</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -861,20 +887,20 @@
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>42</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>37181</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>3453</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -887,20 +913,20 @@
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>35</v>
       </c>
-      <c r="F8" s="5">
-        <v>37911</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="4">
+        <v>41564</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -913,20 +939,20 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>28</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>40545</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -939,20 +965,20 @@
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>34</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>40973</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>2344</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -965,22 +991,22 @@
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>26</v>
       </c>
-      <c r="F11" s="5">
-        <v>41593</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4">
+        <v>43784</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>452</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A11" xr:uid="{4E8A439F-7BD8-4A42-9FD7-471142E7B4A2}">
       <formula1>"countif($A$3:A4,A4)&lt;1"</formula1>
     </dataValidation>
@@ -991,115 +1017,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD008A88-B643-43C0-ACE0-135D87E1AD92}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="5" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="13" customWidth="1"/>
+    <col min="3" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="12" t="str">
+        <f>VLOOKUP(A3,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>김소훈</v>
+      </c>
+      <c r="C3" s="14">
+        <f>VLOOKUP(A3,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>39205</v>
+      </c>
+      <c r="D3" s="15">
+        <f ca="1">DATEDIF(C3, TODAY(), "Y")</f>
+        <v>15</v>
+      </c>
+      <c r="E3" s="16">
+        <f ca="1">VLOOKUP(D3,$H$3:$I$6,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="12" t="str">
+        <f>VLOOKUP(A4,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>한재호</v>
+      </c>
+      <c r="C4" s="14">
+        <f>VLOOKUP(A4,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>40545</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D11" ca="1" si="0">DATEDIF(C4, TODAY(), "Y")</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E11" ca="1" si="1">VLOOKUP(D4,$H$3:$I$6,2)</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="12" t="str">
+        <f>VLOOKUP(A5,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>박병철</v>
+      </c>
+      <c r="C5" s="14">
+        <f>VLOOKUP(A5,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>44682</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="10">
+        <v>6</v>
+      </c>
+      <c r="I5" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="12" t="str">
+        <f>VLOOKUP(A6,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>신재우</v>
+      </c>
+      <c r="C6" s="14">
+        <f>VLOOKUP(A6,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>43784</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="12" t="str">
+        <f>VLOOKUP(A7,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>정수란</v>
+      </c>
+      <c r="C7" s="14">
+        <f>VLOOKUP(A7,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>37181</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="12" t="str">
+        <f>VLOOKUP(A8,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>김동호</v>
+      </c>
+      <c r="C8" s="14">
+        <f>VLOOKUP(A8,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>43191</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="12" t="str">
+        <f>VLOOKUP(A9,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>김기연</v>
+      </c>
+      <c r="C9" s="14">
+        <f>VLOOKUP(A9,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>40973</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="12" t="str">
+        <f>VLOOKUP(A10,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>조예준</v>
+      </c>
+      <c r="C10" s="14">
+        <f>VLOOKUP(A10,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>41564</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="B11" s="12" t="str">
+        <f>VLOOKUP(A11,사원정보!$A$3:$H$11,2,FALSE)</f>
+        <v>고원지</v>
+      </c>
+      <c r="C11" s="14">
+        <f>VLOOKUP(A11,사원정보!$A$3:$H$11,6,FALSE)</f>
+        <v>40404</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
